--- a/testdata/PetStoreData.xlsx
+++ b/testdata/PetStoreData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t xml:space="preserve">Test Cases</t>
   </si>
@@ -71,6 +71,15 @@
     <t xml:space="preserve">country</t>
   </si>
   <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
     <t xml:space="preserve">test_CreateUser</t>
   </si>
   <si>
@@ -104,10 +113,22 @@
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiger Shark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toothless Tiger Shark </t>
+  </si>
+  <si>
     <t xml:space="preserve">cktest2</t>
   </si>
   <si>
     <t xml:space="preserve">Address_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dogs</t>
   </si>
   <si>
     <t xml:space="preserve">cktest3</t>
@@ -393,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,199 +476,220 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>123456789</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>2112</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>123456790</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>2113</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>123456791</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>2114</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>123456792</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>2115</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -694,18 +736,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/PetStoreData.xlsx
+++ b/testdata/PetStoreData.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Tiger Shark</t>
   </si>
   <si>
-    <t xml:space="preserve">Toothless Tiger Shark </t>
+    <t xml:space="preserve">Toothless Tiger Shark</t>
   </si>
   <si>
     <t xml:space="preserve">cktest2</t>
@@ -177,6 +177,7 @@
         <color rgb="FF6AAB73"/>
         <rFont val="Arial Black"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"</t>
     </r>
@@ -186,6 +187,7 @@
         <color rgb="FFBCBEC4"/>
         <rFont val="Arial Black"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">])</t>
     </r>
@@ -198,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,20 +252,16 @@
     </font>
     <font>
       <sz val="11.5"/>
-      <color rgb="FFBCBEC4"/>
       <name val="Arial Black"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11.5"/>
       <color rgb="FF6AAB73"/>
       <name val="Arial Black"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,15 +323,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,7 +415,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,9 +726,9 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
